--- a/8_code/ai-backend/data/test_sets/tracking-and-shipping-information-test-set.xlsx
+++ b/8_code/ai-backend/data/test_sets/tracking-and-shipping-information-test-set.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>When is my order 1276 scheduled to arrive?</t>
+          <t>Where's my order number 2028?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 23935, 'ProductName': 'sharp r372wm solo 25 litre 900w microwave oven white', 'Category': 'Microwaves', 'Category ID': 2618, 'OrderID': 1276, 'CustomerID': 1016, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-05 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 16734, 'ProductName': 'hewlett packard enterprise intel xeon l5530 2.40ghz 2.4ghz 8mb l3 processor', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 2028, 'CustomerID': 969, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-24 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>What's the ETA for order number 2864?</t>
+          <t>Where is my order 1575?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 2174, 'ProductName': 'alcatel shine lite 5080x satin gold unlocked', 'Category': 'Mobile Phones', 'Category ID': 2612, 'OrderID': 2864, 'CustomerID': 1137, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-17 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 26041, 'ProductName': 'samsung ms28j5215as solo microwave silver', 'Category': 'Microwaves', 'Category ID': 2618, 'OrderID': 1575, 'CustomerID': 1072, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-09-29 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>When will order 3127 be delivered?</t>
+          <t>Can I track my order number 2425?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 33354, 'ProductName': 'samsung ww70j5555ew eco bubble 7kg washing machine', 'Category': 'Washing Machines', 'Category ID': 2620, 'OrderID': 3127, 'CustomerID': 989, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-24 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 30776, 'ProductName': 'bosch serie 4 wan28100gb 7kg 1400rpm freestanding washing machine white', 'Category': 'Washing Machines', 'Category ID': 2620, 'OrderID': 2425, 'CustomerID': 827, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-20 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What is the expected delivery date for order 2915?</t>
+          <t>What's the status of order number 2659?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 31668, 'ProductName': 'washing machine', 'Category': 'Washing Machines', 'Category ID': 2620, 'OrderID': 2915, 'CustomerID': 215, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-16 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 16813, 'ProductName': 'hp amd opteron quad core 2354 2.2ghz fio kit 2.2ghz 2mb l3 processor', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 2659, 'CustomerID': 2326, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-11 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Could you tell me when order 2842 is expected to be delivered?</t>
+          <t>When will my order 3003 arrive?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 41363, 'ProductName': 'indesit lr6s1w fridge freezer white', 'Category': 'Fridge Freezers', 'Category ID': 2622, 'OrderID': 2842, 'CustomerID': 182, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-10-15 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 37955, 'ProductName': 'samsung brb260000ww built in fridge freezer 70/30 frost free', 'Category': 'Fridge Freezers', 'Category ID': 2622, 'OrderID': 3003, 'CustomerID': 297, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-09 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>When should I expect my order, 1705, to arrive?</t>
+          <t>When is order 2885 going to be delivered?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 26438, 'ProductName': 'neff s511a50x1g 12 place fully integrated dishwasher', 'Category': 'Dishwashers', 'Category ID': 2619, 'OrderID': 1705, 'CustomerID': 282, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-09 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 45206, 'ProductName': 'swan sr11035bln freestanding retro under counter fridge freezer a rated 90 litre blue', 'Category': 'Fridges', 'Category ID': 2623, 'OrderID': 2885, 'CustomerID': 549, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-02 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>When is my order 3240 scheduled to arrive?</t>
+          <t>What's the delivery date for order 2247?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 26551, 'ProductName': 'blomberg ldv42244 60cm fully integrated dishwasher 14 pl. settings a', 'Category': 'Dishwashers', 'Category ID': 2619, 'OrderID': 2709, 'CustomerID': 1134, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-14 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 10726, 'ProductName': 'lg 55uk6300pla 55 ultra hd 4k tv', 'Category': 'TVs', 'Category ID': 2614, 'OrderID': 2247, 'CustomerID': 563, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-21 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>When will my order 2300 arrive?</t>
+          <t>How can I track order number 1847?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 35449, 'ProductName': 'siemens iq500 gs36nai31 tall freezer stainless steel', 'Category': 'Freezers', 'Category ID': 2621, 'OrderID': 1874, 'CustomerID': 817, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-29 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 22421, 'ProductName': 'sony alpha 7 geh use', 'Category': 'Digital Cameras', 'Category ID': 2617, 'OrderID': 1847, 'CustomerID': 1452, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-17 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>When will my order 1763 get here?</t>
+          <t>Where is order 2846 now?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 40378, 'ProductName': 'zanussi einbau k hlger t zbb 28441 sa a', 'Category': 'Fridge Freezers', 'Category ID': 2622, 'OrderID': 2296, 'CustomerID': 263, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-10-23 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 17249, 'ProductName': 'amd phenom ii x4 840 3.20ghz 2mb cache am3 quad core socket am3 retail box cpu processor inc fan and heatsink', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 2846, 'CustomerID': 1086, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-16 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>When should I expect my order 2435?</t>
+          <t>I want to check the status of order 3273.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 13840, 'ProductName': 'amd ryzen 7 eight core 1700 3.70ghz socket am4 processor retail', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 2871, 'CustomerID': 981, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-10 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 24163, 'ProductName': 'sharp r272wm compact microwave oven in white 800w 20 litre', 'Category': 'Microwaves', 'Category ID': 2618, 'OrderID': 3273, 'CustomerID': 1748, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-15 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
